--- a/outputs/tables/ANOVA_Varying Material with Material Type=Condom.xlsx
+++ b/outputs/tables/ANOVA_Varying Material with Material Type=Condom.xlsx
@@ -1,49 +1,107 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+  <si>
+    <t>Width % (wd_rel)</t>
+  </si>
+  <si>
+    <t>Width (wd)</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>PR(&gt;F)</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>mean_sq</t>
+  </si>
+  <si>
+    <t>sum_sq</t>
+  </si>
+  <si>
+    <t>Type 1 ANOVA</t>
+  </si>
+  <si>
+    <t>Type 2 ANOVA</t>
+  </si>
+  <si>
+    <t>Type 3 ANOVA</t>
+  </si>
+  <si>
+    <t>C(Q('Material'))</t>
+  </si>
+  <si>
+    <t>mmHg</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="4">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <color rgb="00000000"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <color rgb="00FF0000"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -52,144 +110,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -477,430 +429,374 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr"/>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Width % (wd_rel)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Width (wd)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="n"/>
-      <c r="J1" s="1" t="n"/>
-      <c r="K1" s="1" t="n"/>
-      <c r="L1" s="1" t="n"/>
-    </row>
-    <row r="2">
-      <c r="B2" s="1" t="inlineStr"/>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>PR(&gt;F)</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>df</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>mean_sq</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>sum_sq</t>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>PR(&gt;F)</t>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>df</t>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>mean_sq</t>
-        </is>
-      </c>
-      <c r="L2" s="1" t="inlineStr">
-        <is>
-          <t>sum_sq</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Type 1 ANOVA</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>C(Q('Material'))</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+    <row r="1" spans="1:12">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2">
         <v>0.1725947696439487</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="3">
         <v>0.9145610305121237</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="2">
         <v>3</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="2">
         <v>0.00680778032205307</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="2">
         <v>0.02042334096615921</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="2">
         <v>0.2682426761561088</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="3">
         <v>0.8480647701544214</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="2">
         <v>3</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="2">
         <v>647.5324074074088</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4" s="2">
         <v>1942.597222222226</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>mmHg</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+    <row r="5" spans="1:12">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2">
         <v>161.8327644700996</v>
       </c>
-      <c r="D5" s="3" t="n">
-        <v>1.547337264316757e-19</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5" s="4">
+        <v>1.547337264316757E-19</v>
+      </c>
+      <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="2">
         <v>6.383286768746069</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="2">
         <v>6.383286768746069</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="2">
         <v>160.4411214921491</v>
       </c>
-      <c r="I5" s="3" t="n">
-        <v>1.900477031976068e-19</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="I5" s="4">
+        <v>1.900477031976068E-19</v>
+      </c>
+      <c r="J5" s="2">
         <v>1</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" s="2">
         <v>387301.629761905</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5" s="2">
         <v>387301.629761905</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n"/>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>Residual</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" s="2" t="inlineStr"/>
-      <c r="E6" t="n">
+    <row r="6" spans="1:12">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="2">
         <v>67</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="2">
         <v>0.03944372321419161</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="2">
         <v>2.642729455350838</v>
       </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" s="2" t="inlineStr"/>
-      <c r="J6" t="n">
+      <c r="H6" s="2"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="2">
         <v>67</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6" s="2">
         <v>2413.979821132433</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6" s="2">
         <v>161736.648015873</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Type 2 ANOVA</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>C(Q('Material'))</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2">
         <v>0.1725947696439495</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="3">
         <v>0.9145610305121237</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="2">
         <v>3</v>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="n">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
         <v>0.02042334096615931</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="2">
         <v>0.2682426761561121</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="3">
         <v>0.8480647701544214</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7" s="2">
         <v>3</v>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
+      <c r="K7" s="2"/>
+      <c r="L7" s="2">
         <v>1942.59722222225</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>mmHg</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+    <row r="8" spans="1:12">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2">
         <v>161.8327644700968</v>
       </c>
-      <c r="D8" s="3" t="n">
-        <v>1.54733726431739e-19</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="D8" s="4">
+        <v>1.54733726431739E-19</v>
+      </c>
+      <c r="E8" s="2">
         <v>1</v>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="n">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
         <v>6.383286768745958</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" s="2">
         <v>160.4411214921506</v>
       </c>
-      <c r="I8" s="3" t="n">
-        <v>1.900477031975634e-19</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="I8" s="4">
+        <v>1.900477031975634E-19</v>
+      </c>
+      <c r="J8" s="2">
         <v>1</v>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
+      <c r="K8" s="2"/>
+      <c r="L8" s="2">
         <v>387301.6297619088</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>Residual</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" s="2" t="inlineStr"/>
-      <c r="E9" t="n">
+    <row r="9" spans="1:12">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2">
         <v>67</v>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="n">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2">
         <v>2.642729455350838</v>
       </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" s="2" t="inlineStr"/>
-      <c r="J9" t="n">
+      <c r="H9" s="2"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="2">
         <v>67</v>
       </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
+      <c r="K9" s="2"/>
+      <c r="L9" s="2">
         <v>161736.648015873</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Type 3 ANOVA</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>Intercept</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2">
         <v>22.40406178539424</v>
       </c>
-      <c r="D10" s="3" t="n">
-        <v>1.184871425580771e-05</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="D10" s="4">
+        <v>1.184871425580771E-05</v>
+      </c>
+      <c r="E10" s="2">
         <v>1</v>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="n">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2">
         <v>0.883699611936738</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" s="2">
         <v>156.011419546211</v>
       </c>
-      <c r="I10" s="3" t="n">
-        <v>3.687669636290243e-19</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="I10" s="4">
+        <v>3.687669636290243E-19</v>
+      </c>
+      <c r="J10" s="2">
         <v>1</v>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
+      <c r="K10" s="2"/>
+      <c r="L10" s="2">
         <v>376608.4186507796</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>C(Q('Material'))</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+    <row r="11" spans="1:12">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2">
         <v>0.1725947696439495</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="3">
         <v>0.9145610305121237</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="2">
         <v>3</v>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="n">
+      <c r="F11" s="2"/>
+      <c r="G11" s="2">
         <v>0.02042334096615931</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11" s="2">
         <v>0.2682426761561121</v>
       </c>
-      <c r="I11" s="2" t="n">
+      <c r="I11" s="3">
         <v>0.8480647701544214</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11" s="2">
         <v>3</v>
       </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
+      <c r="K11" s="2"/>
+      <c r="L11" s="2">
         <v>1942.59722222225</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>mmHg</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+    <row r="12" spans="1:12">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2">
         <v>161.8327644700968</v>
       </c>
-      <c r="D12" s="3" t="n">
-        <v>1.54733726431739e-19</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="D12" s="4">
+        <v>1.54733726431739E-19</v>
+      </c>
+      <c r="E12" s="2">
         <v>1</v>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="n">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2">
         <v>6.383286768745958</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12" s="2">
         <v>160.4411214921506</v>
       </c>
-      <c r="I12" s="3" t="n">
-        <v>1.900477031975634e-19</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="I12" s="4">
+        <v>1.900477031975634E-19</v>
+      </c>
+      <c r="J12" s="2">
         <v>1</v>
       </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
+      <c r="K12" s="2"/>
+      <c r="L12" s="2">
         <v>387301.6297619088</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>Residual</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" s="2" t="inlineStr"/>
-      <c r="E13" t="n">
+    <row r="13" spans="1:12">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="2">
         <v>67</v>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="n">
+      <c r="F13" s="2"/>
+      <c r="G13" s="2">
         <v>2.642729455350838</v>
       </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" s="2" t="inlineStr"/>
-      <c r="J13" t="n">
+      <c r="H13" s="2"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="2">
         <v>67</v>
       </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
+      <c r="K13" s="2"/>
+      <c r="L13" s="2">
         <v>161736.648015873</v>
       </c>
     </row>
@@ -912,6 +808,6 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A13"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>